--- a/config_sig_TEST.xlsx
+++ b/config_sig_TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\get_db_byRest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237A312F-7F85-46C7-841B-0E97BC8081F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0635517D-61F3-4A19-8BA8-CF2C28B964CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>srv</t>
     <phoneticPr fontId="2"/>
@@ -216,28 +216,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>xfel_llrf_cb17_1_iq_acc_1_dload_ta/amplitude</t>
-  </si>
-  <si>
-    <t>xfel_llrf_cb17_1_iq_acc_1_dload_ta/phase</t>
-  </si>
-  <si>
-    <t>xfel_llrf_cb17_2_iq_acc_1_dload_ta/amplitude</t>
-  </si>
-  <si>
-    <t>xfel_llrf_cb17_2_iq_acc_1_dload_ta/phase</t>
-  </si>
-  <si>
-    <t>xfel_llrf_cb17_3_iq_acc_1_dload_ta/amplitude</t>
-  </si>
-  <si>
-    <t>xfel_llrf_cb17_3_iq_acc_1_dload_ta/phase</t>
-  </si>
-  <si>
     <t>xfel_llrf_cb17_4_iq_acc_1_dload_ta/amplitude</t>
   </si>
   <si>
     <t>xfel_llrf_cb17_4_iq_acc_1_dload_ta/phase</t>
+  </si>
+  <si>
+    <t>xfel_llrf_238_iq_cav_pickup_ta/amplitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xfel_llrf_238_iq_cav_pickup_ta/phase</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -662,10 +652,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -725,11 +715,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="D2" t="s">
-        <v>38</v>
+      <c r="A2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>0.02</v>
+        <v>2E-3</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -739,13 +732,19 @@
       <c r="J2">
         <v>0.1</v>
       </c>
+      <c r="L2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
-      <c r="D3" t="s">
-        <v>39</v>
+      <c r="A3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -755,10 +754,13 @@
       <c r="J3">
         <v>0.1</v>
       </c>
+      <c r="L3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0.02</v>
@@ -774,7 +776,7 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -789,68 +791,24 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6">
-        <v>0.02</v>
-      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6">
-        <v>0.1</v>
-      </c>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7">
-        <v>0.1</v>
-      </c>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8">
-        <v>0.02</v>
-      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8">
-        <v>0.1</v>
-      </c>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9">
-        <v>0.1</v>
-      </c>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="G10" s="5"/>
@@ -926,56 +884,6 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="7:9" ht="15.75" customHeight="1">
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="7:9" ht="15.75" customHeight="1">
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="7:9" ht="15.75" customHeight="1">
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="7:9" ht="15.75" customHeight="1">
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="7:9" ht="15.75" customHeight="1">
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="7:9" ht="15.75" customHeight="1">
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="7:9" ht="15.75" customHeight="1">
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="7:9" ht="15.75" customHeight="1">
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="7:9" ht="15.75" customHeight="1">
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="7:9" ht="15.75" customHeight="1">
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/config_sig_TEST.xlsx
+++ b/config_sig_TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\get_db_byRest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0635517D-61F3-4A19-8BA8-CF2C28B964CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA12C1BE-0F84-4F27-9028-CE34A0B69996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>srv</t>
     <phoneticPr fontId="2"/>
@@ -216,17 +216,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>xfel_llrf_cb17_4_iq_acc_1_dload_ta/amplitude</t>
-  </si>
-  <si>
     <t>xfel_llrf_cb17_4_iq_acc_1_dload_ta/phase</t>
   </si>
   <si>
-    <t>xfel_llrf_238_iq_cav_pickup_ta/amplitude</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xfel_llrf_238_iq_cav_pickup_ta/phase</t>
+    <t>xfel_llrf_cb17_4_iq_acc_1_dload_ta/amplitud</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -652,10 +645,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -715,14 +708,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
+      <c r="D2" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>2E-3</v>
+        <v>0.02</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -732,19 +722,13 @@
       <c r="J2">
         <v>0.1</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>41</v>
+      <c r="D3" t="s">
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -754,41 +738,16 @@
       <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4">
-        <v>0.02</v>
-      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>0.1</v>
-      </c>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <v>0.1</v>
-      </c>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="G6" s="5"/>
@@ -874,16 +833,6 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="7:9" ht="15.75" customHeight="1">
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="7:9" ht="15.75" customHeight="1">
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/config_sig_TEST.xlsx
+++ b/config_sig_TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\get_db_byRest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA12C1BE-0F84-4F27-9028-CE34A0B69996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B092C-186C-4FED-A9ED-53D846BA3FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,7 +219,7 @@
     <t>xfel_llrf_cb17_4_iq_acc_1_dload_ta/phase</t>
   </si>
   <si>
-    <t>xfel_llrf_cb17_4_iq_acc_1_dload_ta/amplitud</t>
+    <t>xfel_llrf_cb17_4_iq_acc_1_dload_ta/amplitude</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>

--- a/config_sig_TEST.xlsx
+++ b/config_sig_TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\get_db_byRest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B092C-186C-4FED-A9ED-53D846BA3FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E11EA5-EBBF-4358-868E-0D71653B1BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>srv</t>
     <phoneticPr fontId="2"/>
@@ -220,6 +220,14 @@
   </si>
   <si>
     <t>xfel_llrf_cb17_4_iq_acc_1_dload_ta/amplitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xfel_llrf_cb18_1_iq_acc_1_dload_ta/amplitude</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xfel_llrf_cb18_1_iq_acc_1_dload_ta/phase</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -648,7 +656,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -740,14 +748,36 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>0.02</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
+      <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="G6" s="5"/>
